--- a/permanent_data/staff_directory.xlsx
+++ b/permanent_data/staff_directory.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="103">
   <si>
     <t>Real_name</t>
   </si>
@@ -157,6 +157,18 @@
     <t>Person_797</t>
   </si>
   <si>
+    <t>Person_798</t>
+  </si>
+  <si>
+    <t>Person_799</t>
+  </si>
+  <si>
+    <t>Person_800</t>
+  </si>
+  <si>
+    <t>Person_801</t>
+  </si>
+  <si>
     <t>Nono</t>
   </si>
   <si>
@@ -278,6 +290,18 @@
   </si>
   <si>
     <t>Tross</t>
+  </si>
+  <si>
+    <t>Socks</t>
+  </si>
+  <si>
+    <t>"2319"</t>
+  </si>
+  <si>
+    <t>Swamp Puppy</t>
+  </si>
+  <si>
+    <t>Hullabaloo</t>
   </si>
   <si>
     <t>Male</t>
@@ -656,7 +680,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F42"/>
+  <dimension ref="A1:F46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -687,10 +711,10 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="D2" t="b">
         <v>0</v>
@@ -704,10 +728,10 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C3" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="D3" t="b">
         <v>1</v>
@@ -721,10 +745,10 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C4" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="D4" t="b">
         <v>1</v>
@@ -738,10 +762,10 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C5" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="D5" t="b">
         <v>0</v>
@@ -755,10 +779,10 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C6" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="D6" t="b">
         <v>1</v>
@@ -772,10 +796,10 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C7" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="D7" t="b">
         <v>0</v>
@@ -789,10 +813,10 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C8" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="D8" t="b">
         <v>1</v>
@@ -806,10 +830,10 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C9" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="D9" t="b">
         <v>0</v>
@@ -823,10 +847,10 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C10" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="D10" t="b">
         <v>0</v>
@@ -840,10 +864,10 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C11" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="D11" t="b">
         <v>0</v>
@@ -857,19 +881,19 @@
         <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C12" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="D12" t="b">
         <v>0</v>
       </c>
       <c r="E12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -877,10 +901,10 @@
         <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C13" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="D13" t="b">
         <v>0</v>
@@ -894,10 +918,10 @@
         <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C14" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="D14" t="b">
         <v>0</v>
@@ -911,10 +935,10 @@
         <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C15" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="D15" t="b">
         <v>0</v>
@@ -923,7 +947,7 @@
         <v>1</v>
       </c>
       <c r="F15" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -931,10 +955,10 @@
         <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C16" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="D16" t="b">
         <v>0</v>
@@ -948,10 +972,10 @@
         <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C17" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="D17" t="b">
         <v>0</v>
@@ -960,7 +984,7 @@
         <v>1</v>
       </c>
       <c r="F17" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -968,10 +992,10 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C18" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="D18" t="b">
         <v>1</v>
@@ -980,7 +1004,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -988,10 +1012,10 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C19" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="D19" t="b">
         <v>1</v>
@@ -1000,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1008,10 +1032,10 @@
         <v>24</v>
       </c>
       <c r="B20" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C20" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="D20" t="b">
         <v>1</v>
@@ -1020,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1028,10 +1052,10 @@
         <v>25</v>
       </c>
       <c r="B21" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C21" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="D21" t="b">
         <v>1</v>
@@ -1045,10 +1069,10 @@
         <v>26</v>
       </c>
       <c r="B22" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C22" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="D22" t="b">
         <v>1</v>
@@ -1057,7 +1081,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1065,10 +1089,10 @@
         <v>27</v>
       </c>
       <c r="B23" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C23" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="D23" t="b">
         <v>1</v>
@@ -1082,10 +1106,10 @@
         <v>28</v>
       </c>
       <c r="B24" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C24" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="D24" t="b">
         <v>1</v>
@@ -1099,10 +1123,10 @@
         <v>29</v>
       </c>
       <c r="B25" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C25" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="D25" t="b">
         <v>1</v>
@@ -1116,10 +1140,10 @@
         <v>30</v>
       </c>
       <c r="B26" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C26" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="D26" t="b">
         <v>0</v>
@@ -1128,7 +1152,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1136,10 +1160,10 @@
         <v>31</v>
       </c>
       <c r="B27" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C27" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="D27" t="b">
         <v>0</v>
@@ -1148,7 +1172,7 @@
         <v>0</v>
       </c>
       <c r="F27" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1156,10 +1180,10 @@
         <v>32</v>
       </c>
       <c r="B28" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C28" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="D28" t="b">
         <v>0</v>
@@ -1168,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1176,10 +1200,10 @@
         <v>33</v>
       </c>
       <c r="B29" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C29" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="D29" t="b">
         <v>0</v>
@@ -1193,10 +1217,10 @@
         <v>34</v>
       </c>
       <c r="B30" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C30" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="D30" t="b">
         <v>0</v>
@@ -1210,10 +1234,10 @@
         <v>35</v>
       </c>
       <c r="B31" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C31" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="D31" t="b">
         <v>0</v>
@@ -1227,10 +1251,10 @@
         <v>36</v>
       </c>
       <c r="B32" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C32" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="D32" t="b">
         <v>0</v>
@@ -1244,10 +1268,10 @@
         <v>37</v>
       </c>
       <c r="B33" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C33" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="D33" t="b">
         <v>0</v>
@@ -1261,10 +1285,10 @@
         <v>38</v>
       </c>
       <c r="B34" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C34" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="D34" t="b">
         <v>0</v>
@@ -1278,10 +1302,10 @@
         <v>39</v>
       </c>
       <c r="B35" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C35" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="D35" t="b">
         <v>1</v>
@@ -1295,10 +1319,10 @@
         <v>40</v>
       </c>
       <c r="B36" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C36" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="D36" t="b">
         <v>1</v>
@@ -1312,16 +1336,19 @@
         <v>41</v>
       </c>
       <c r="B37" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C37" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="D37" t="b">
         <v>0</v>
       </c>
       <c r="E37" t="b">
         <v>0</v>
+      </c>
+      <c r="F37" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1329,10 +1356,10 @@
         <v>42</v>
       </c>
       <c r="B38" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C38" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="D38" t="b">
         <v>0</v>
@@ -1346,10 +1373,10 @@
         <v>43</v>
       </c>
       <c r="B39" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C39" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="D39" t="b">
         <v>1</v>
@@ -1363,10 +1390,10 @@
         <v>44</v>
       </c>
       <c r="B40" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C40" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="D40" t="b">
         <v>0</v>
@@ -1375,7 +1402,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1383,10 +1410,10 @@
         <v>45</v>
       </c>
       <c r="B41" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C41" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="D41" t="b">
         <v>1</v>
@@ -1395,7 +1422,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1403,16 +1430,96 @@
         <v>46</v>
       </c>
       <c r="B42" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C42" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="D42" t="b">
         <v>1</v>
       </c>
       <c r="E42" t="b">
         <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" t="s">
+        <v>47</v>
+      </c>
+      <c r="B43" t="s">
+        <v>92</v>
+      </c>
+      <c r="C43" t="s">
+        <v>96</v>
+      </c>
+      <c r="D43" t="b">
+        <v>0</v>
+      </c>
+      <c r="E43" t="b">
+        <v>0</v>
+      </c>
+      <c r="F43" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" t="s">
+        <v>48</v>
+      </c>
+      <c r="B44" t="s">
+        <v>93</v>
+      </c>
+      <c r="C44" t="s">
+        <v>96</v>
+      </c>
+      <c r="D44" t="b">
+        <v>0</v>
+      </c>
+      <c r="E44" t="b">
+        <v>0</v>
+      </c>
+      <c r="F44" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" t="s">
+        <v>49</v>
+      </c>
+      <c r="B45" t="s">
+        <v>94</v>
+      </c>
+      <c r="C45" t="s">
+        <v>96</v>
+      </c>
+      <c r="D45" t="b">
+        <v>0</v>
+      </c>
+      <c r="E45" t="b">
+        <v>0</v>
+      </c>
+      <c r="F45" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" t="s">
+        <v>50</v>
+      </c>
+      <c r="B46" t="s">
+        <v>95</v>
+      </c>
+      <c r="C46" t="s">
+        <v>97</v>
+      </c>
+      <c r="D46" t="b">
+        <v>0</v>
+      </c>
+      <c r="E46" t="b">
+        <v>0</v>
+      </c>
+      <c r="F46" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
